--- a/biology/Botanique/Nepenthes_albomarginata/Nepenthes_albomarginata.xlsx
+++ b/biology/Botanique/Nepenthes_albomarginata/Nepenthes_albomarginata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes albomarginata est une plante carnivore originaire de Bornéo, de la Malaisie péninsulaire et de Sumatra.
 C'est une espèce de basse altitude que l'on rencontre entre 0 et 1 000 m.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Albomarginata vient du latin Albus (blanc) et marginatus (marge) qui fait référence à sa principale caractéristique morphologique : une collerette de trichomes blancs en dessous du péristome.
 </t>
@@ -543,7 +557,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Nepenthes albomarginata est une plante grimpante qui peut atteindre 4 m de long.
 Les urnes, qui sont de taille modeste par rapport à d'autres espèces, peuvent atteindre 15 cm de hauteur pour 4 cm de largeur.
